--- a/Screeaner_BEAR CALL DIAGONAL/SCREENER_RESULT.xlsx
+++ b/Screeaner_BEAR CALL DIAGONAL/SCREENER_RESULT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,45 +491,35 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Regime</t>
+          <t>Current Price</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Relative Regime</t>
+          <t>RSI</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>UP DOWN Trend</t>
+          <t>Trend</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>UP DOWN Line</t>
+          <t>Reward/Risk Ratio</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Caledar Call Score</t>
+          <t>Proba 30</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Strike</t>
+          <t>Expected Return</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Proba 30</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Expected Return</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Momentum</t>
         </is>
@@ -547,776 +537,574 @@
       <c r="C2" t="n">
         <v>100</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.098901098901099</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.21071028</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.15276039</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0.177400801</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>0.20015944780000003</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>0.2071724874</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D2" t="n">
+        <v>1.098901098901099</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.21071028</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.15276039</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.177400801</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.2001594478</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.2071724874</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>194.6799926757812</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1.265</v>
+        <v>57.7529818424969</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Strong Uptrend</t>
+        </is>
       </c>
       <c r="O2" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.2703252032520325</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.8358167528194076</v>
+        <v>0.74</v>
       </c>
       <c r="Q2" t="n">
-        <v>187.5</v>
+        <v>-52.21614813173395</v>
       </c>
       <c r="R2" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="S2" t="n">
-        <v>-53.58386853691545</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.2086320415170471</v>
+        <v>0.208632066417119</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>100</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>EMPTY</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>EMPTY</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>EMPTY</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>EMPTY</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>EMPTY</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>EMPTY</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>EMPTY</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>EMPTY</t>
-        </is>
+      <c r="D3" t="n">
+        <v>6.318681318681318</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.264755045</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.2146551</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.295709538</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.2823659039999999</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.2823212966</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>140.4199981689453</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1.759</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.96</v>
-      </c>
+        <v>63.9309758374164</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Strong Uptrend</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="n">
-        <v>0.4570604862033545</v>
+      <c r="R3" t="n">
+        <v>0.2373931228566379</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>GOOG</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>100</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6.318681318681318</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.264755045</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2146551</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0.295709538</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>0.28236590399999995</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>0.2823212966</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D4" t="n">
+        <v>6.318681318681318</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.26417562</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.21449635</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.2886930065</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.2758665624</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.2751533209</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>141.8000030517578</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.993</v>
+        <v>63.4999664823246</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Strong Uptrend</t>
+        </is>
       </c>
       <c r="O4" t="n">
-        <v>1.094</v>
+        <v>0.130952380952381</v>
       </c>
       <c r="P4" t="n">
-        <v>-2.246580580798753</v>
+        <v>0.8029999999999999</v>
       </c>
       <c r="Q4" t="n">
-        <v>129</v>
+        <v>-86.32960120261511</v>
       </c>
       <c r="R4" t="n">
-        <v>0.244</v>
-      </c>
-      <c r="S4" t="n">
-        <v>-99.06497109029021</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.2373931228566379</v>
+        <v>0.2430427469332619</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GOOG</t>
+          <t>AMZN</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>100</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>6.318681318681318</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.26417562</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.21449635</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0.2886930065</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>0.2758665624</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>0.2751533209</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D5" t="n">
+        <v>1.373626373626374</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.2992821</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.23238692</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.2921988925</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.3064272133999999</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.3167794556</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>153.8399963378906</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1.004</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.142</v>
-      </c>
-      <c r="P5" t="n">
-        <v>-0.3867153377979039</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>130</v>
-      </c>
+        <v>65.3050196887407</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Strong Uptrend</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
-        <v>0.4827</v>
-      </c>
-      <c r="S5" t="n">
-        <v>-19.04970348933236</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.2430427469332619</v>
+        <v>0.3284621214981063</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>100</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.3736263736263736</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.2992821</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.23238692</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0.2921988925</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0.30642721339999995</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>0.31677945560000004</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D6" t="n">
+        <v>3.296703296703297</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.43179455</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.33126923</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.352698228</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.3737633826</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.4017925249999999</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>489.8999938964844</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1.444</v>
+        <v>56.16881828957805</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Strong Uptrend</t>
+        </is>
       </c>
       <c r="O6" t="n">
-        <v>1.004</v>
+        <v>0.2595837897042717</v>
       </c>
       <c r="P6" t="n">
-        <v>-1.144566836559699</v>
+        <v>0.7977</v>
       </c>
       <c r="Q6" t="n">
-        <v>143</v>
+        <v>-208.3592390432667</v>
       </c>
       <c r="R6" t="n">
-        <v>0.0553</v>
-      </c>
-      <c r="S6" t="n">
-        <v>-111.9637230119563</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.3284621214981063</v>
+        <v>0.5632175571942082</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>META</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>100</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.2967032967032965</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.43179455</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.33126923</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0.352698228</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0.3737633826</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>0.40179252499999996</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D7" t="n">
+        <v>3.571428571428572</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.33292018</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.25983394</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.2745877115</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.2944806926</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.3313674930999999</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>354.0899963378906</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1.138</v>
+        <v>68.1589138894265</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Strong Uptrend</t>
+        </is>
       </c>
       <c r="O7" t="n">
-        <v>1.049</v>
+        <v>0.1315417256011316</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.1736209111991891</v>
+        <v>0.8109999999999999</v>
       </c>
       <c r="Q7" t="n">
-        <v>450</v>
+        <v>-348.6336961474147</v>
       </c>
       <c r="R7" t="n">
-        <v>0.6013000000000001</v>
-      </c>
-      <c r="S7" t="n">
-        <v>-30.4764158370741</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0.5632175582987562</v>
+        <v>0.9745883291887573</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>META</t>
+          <t>TSLA</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>100</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.5714285714285716</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.33292018</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.25983394</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0.27458771150000005</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0.2944806926</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>0.33136749309999997</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D8" t="n">
+        <v>4.945054945054945</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.487371205</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.43486627</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.51591595</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.5026599418</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.477693786</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>254.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.994</v>
+        <v>59.97671042134758</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Strong Uptrend</t>
+        </is>
       </c>
       <c r="O8" t="n">
-        <v>1.008</v>
+        <v>0.2269938650306748</v>
       </c>
       <c r="P8" t="n">
-        <v>0.9488966696532077</v>
+        <v>0.7696999999999999</v>
       </c>
       <c r="Q8" t="n">
-        <v>325</v>
+        <v>-190.6913720434807</v>
       </c>
       <c r="R8" t="n">
-        <v>0.655</v>
-      </c>
-      <c r="S8" t="n">
-        <v>118.3651106008507</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0.9745883291887573</v>
+        <v>0.1204139412596779</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BRK-B</t>
+          <t>LLY</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>100</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>EMPTY</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>EMPTY</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>EMPTY</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>EMPTY</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>EMPTY</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>EMPTY</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>EMPTY</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>EMPTY</t>
-        </is>
+      <c r="D9" t="n">
+        <v>45.05494505494506</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.24730896</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.26918403</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.342239309</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.3144746356</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.3132845237</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>572</v>
       </c>
       <c r="M9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.975</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.838</v>
-      </c>
+        <v>43.21216676227591</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Weak Uptrend</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="n">
-        <v>0.1935641235715017</v>
+      <c r="R9" t="n">
+        <v>0.4296730423071104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TSLA</t>
+          <t>V</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>100</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4.945054945054945</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.487371205</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.43486627</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0.51591595</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>0.5026599418</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>0.477693786</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D10" t="n">
+        <v>5.21978021978022</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.179913735</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.14209272</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.1483520385</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.1548729684</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.1659843303</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>259.5400085449219</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="n">
-        <v>1.42</v>
+        <v>62.2147879579707</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Strong Uptrend</t>
+        </is>
       </c>
       <c r="O10" t="n">
-        <v>1.091</v>
+        <v>0.2315270935960592</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.037366216861421</v>
+        <v>0.7547</v>
       </c>
       <c r="Q10" t="n">
-        <v>230</v>
+        <v>-43.66372668353606</v>
       </c>
       <c r="R10" t="n">
-        <v>0.4667</v>
-      </c>
-      <c r="S10" t="n">
-        <v>-78.86825347371075</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0.1204139412596779</v>
+        <v>0.1681020087101451</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LLY</t>
+          <t>UNH</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>100</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>45.05494505494506</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.24730896</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.26918403</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0.342239309</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>0.3144746356</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>0.3132845237</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="D11" t="n">
+        <v>30.49450549450549</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.18897808</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.19814561</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.175258534</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.1717199485999999</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.1806549157</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>519.8800048828125</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1.006</v>
+        <v>36.21841647140104</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Weak Uptrend</t>
+        </is>
       </c>
       <c r="O11" t="n">
-        <v>0.764</v>
+        <v>0.3539651837524179</v>
       </c>
       <c r="P11" t="n">
-        <v>-1.350923687991946</v>
+        <v>0.7087</v>
       </c>
       <c r="Q11" t="n">
-        <v>545</v>
+        <v>110.0925653282009</v>
       </c>
       <c r="R11" t="n">
-        <v>0.08800000000000001</v>
-      </c>
-      <c r="S11" t="n">
-        <v>-252.82629349789</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0.4296730423071104</v>
+        <v>0.006231082534863136</v>
       </c>
     </row>
   </sheetData>
